--- a/docs/data/scorecards_by_council_group/scorecards_by_council_group.xlsx
+++ b/docs/data/scorecards_by_council_group/scorecards_by_council_group.xlsx
@@ -35,7 +35,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/climate_scorecard_data_2022/datasets/scorecards_by_council_group/</t>
+    <t>https://mysociety.github.io/climate_scorecard_data_2022/datasets/scorecards-by-council-group/</t>
   </si>
   <si>
     <t>Dataset description</t>
